--- a/Documentation/Presentations/ProjectPlanningTemplate.xlsx
+++ b/Documentation/Presentations/ProjectPlanningTemplate.xlsx
@@ -201,7 +201,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="percentStacked"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1617,7 +1617,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1645,10 +1645,37 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="530569600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2706,7 +2733,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
